--- a/semana3/dia1/modelo_practica_mtto.xlsx
+++ b/semana3/dia1/modelo_practica_mtto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FABIO\TECSUP\CLASES\backend\semana3\dia1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8090556C-5DDF-4A24-949B-32C3A2FB4DEE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09925356-CDD1-4900-B302-C12F30B14351}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{5B6972BA-AE89-4869-9274-6C618787980A}"/>
   </bookViews>
@@ -493,7 +493,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
